--- a/周报模版（230101-230101）- 你的名字.xlsx
+++ b/周报模版（230101-230101）- 你的名字.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cloudiful/PycharmProjects/weeklyReportGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E38C762-1067-DD4F-95FC-60F52ED27426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB9679-476D-E14B-BFBF-E4493F6F1DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="128" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -710,9 +710,7 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="17">
-        <v>1</v>
-      </c>
+      <c r="C4" s="17"/>
       <c r="D4" s="7">
         <v>45033</v>
       </c>
@@ -730,9 +728,7 @@
       <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="17">
-        <v>2</v>
-      </c>
+      <c r="C5" s="17"/>
       <c r="D5" s="7">
         <v>45033</v>
       </c>
@@ -750,9 +746,7 @@
       <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="17">
-        <v>3</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="7">
         <v>45033</v>
       </c>
@@ -798,9 +792,7 @@
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="17">
-        <v>4</v>
-      </c>
+      <c r="C10" s="17"/>
       <c r="D10" s="7">
         <v>45040</v>
       </c>
@@ -815,9 +807,7 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="17">
-        <v>5</v>
-      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="7">
         <v>45040</v>
       </c>
@@ -832,9 +822,7 @@
       <c r="B12" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="17">
-        <v>6</v>
-      </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="7">
         <v>45040</v>
       </c>
@@ -875,9 +863,7 @@
       <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="17">
-        <v>7</v>
-      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="7">
         <v>45026</v>
       </c>
@@ -892,9 +878,7 @@
       <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="17">
-        <v>8</v>
-      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="7">
         <v>45026</v>
       </c>
@@ -909,9 +893,7 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="17">
-        <v>9</v>
-      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="7">
         <v>45026</v>
       </c>
